--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabe/Documents/Courses/DataAnalyticsAndViz/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F38D5-C753-2145-A225-C9C509A3209A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D8817-08E8-6943-958B-434E24B8FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="880" windowWidth="36160" windowHeight="20900" xr2:uid="{C15E0EEE-C1F1-F44F-B624-E8E3A48FF19B}"/>
+    <workbookView xWindow="-160" yWindow="880" windowWidth="36160" windowHeight="20900" xr2:uid="{C15E0EEE-C1F1-F44F-B624-E8E3A48FF19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Single variable analysis &amp; visualization</t>
-  </si>
-  <si>
-    <t>Multi-variate analysis</t>
   </si>
   <si>
     <t>[538](https://projects.fivethirtyeight.com/2024-election-forecast/)</t>
@@ -335,21 +332,6 @@
     <t>[Notebook](https://drive.google.com/file/d/1o9U6DYQAs9DRt1ZX9YmHCZzXEtGrlbIm/view?usp=sharing)  [Gradescope](https://www.gradescope.com/courses/842824/assignments/4960995)</t>
   </si>
   <si>
-    <t>Descision trees and tree visualizations</t>
-  </si>
-  <si>
-    <t>Principles for multivariate visualization</t>
-  </si>
-  <si>
-    <t>Data wrangling, Joins</t>
-  </si>
-  <si>
-    <t>Trendlines and regression</t>
-  </si>
-  <si>
-    <t>Clustering and latent variables</t>
-  </si>
-  <si>
     <t>Week 7</t>
   </si>
   <si>
@@ -492,6 +474,24 @@
   </si>
   <si>
     <t>[Assignment](../modules/01-Single-variable/assignments/hw1-single-variable.qmd) [Gradescope](https://www.gradescope.com/courses/842824/assignments/4961117)</t>
+  </si>
+  <si>
+    <t>Simulation-based inference</t>
+  </si>
+  <si>
+    <t>Modeling and maximum likelihood</t>
+  </si>
+  <si>
+    <t>Clustering and mixtures</t>
+  </si>
+  <si>
+    <t>Data wrangling for multiple variables</t>
+  </si>
+  <si>
+    <t>Conditional models and regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Slides](../modules/01-Single-variable/lectures/Lecture-1-1/slides-1-1.qmd)  [Handout](../modules/01-Single-variable/lectures/Lecture-1-1/handout-1-1.qmd) </t>
   </si>
 </sst>
 </file>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462B11C3-4A27-724F-BF64-865C592FD77E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -944,12 +944,12 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>45530</v>
@@ -961,18 +961,18 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>45532</v>
@@ -984,18 +984,18 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>45537</v>
@@ -1004,12 +1004,12 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>45539</v>
@@ -1021,18 +1021,18 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>45544</v>
@@ -1044,15 +1044,15 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>45546</v>
@@ -1064,15 +1064,15 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>45551</v>
@@ -1081,15 +1081,18 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>45553</v>
@@ -1098,15 +1101,15 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>45554</v>
@@ -1115,18 +1118,18 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>45558</v>
@@ -1135,15 +1138,15 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>45559</v>
@@ -1155,15 +1158,15 @@
         <v>14</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>45560</v>
@@ -1172,15 +1175,15 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>45561</v>
@@ -1192,15 +1195,15 @@
         <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>45565</v>
@@ -1209,15 +1212,15 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>45567</v>
@@ -1226,15 +1229,15 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1">
         <v>45572</v>
@@ -1243,15 +1246,15 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>45574</v>
@@ -1260,12 +1263,12 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1">
         <v>45579</v>
@@ -1274,15 +1277,15 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
         <v>45581</v>
@@ -1291,15 +1294,15 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1">
         <v>45586</v>
@@ -1308,15 +1311,15 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1">
         <v>45588</v>
@@ -1325,15 +1328,15 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1">
         <v>45593</v>
@@ -1342,15 +1345,15 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>45595</v>
@@ -1359,15 +1362,15 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>45600</v>
@@ -1376,15 +1379,15 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>45602</v>
@@ -1393,15 +1396,15 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1">
         <v>45607</v>
@@ -1410,15 +1413,15 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1">
         <v>45609</v>
@@ -1427,15 +1430,15 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1">
         <v>45614</v>
@@ -1444,15 +1447,15 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>45616</v>
@@ -1461,15 +1464,15 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1">
         <v>45621</v>
@@ -1478,15 +1481,15 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>45623</v>
@@ -1495,12 +1498,12 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>45628</v>
@@ -1509,15 +1512,15 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1">
         <v>45630</v>
@@ -1526,38 +1529,38 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
         <v>45635</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B36" s="5">
         <v>45639</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabe/Documents/Courses/DataAnalyticsAndViz/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D8817-08E8-6943-958B-434E24B8FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE124BF9-A406-9941-9DC1-E69F3A63D7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="880" windowWidth="36160" windowHeight="20900" xr2:uid="{C15E0EEE-C1F1-F44F-B624-E8E3A48FF19B}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20900" xr2:uid="{C15E0EEE-C1F1-F44F-B624-E8E3A48FF19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -492,6 +493,9 @@
   </si>
   <si>
     <t xml:space="preserve">[Slides](../modules/01-Single-variable/lectures/Lecture-1-1/slides-1-1.qmd)  [Handout](../modules/01-Single-variable/lectures/Lecture-1-1/handout-1-1.qmd) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Slides](../modules/01-Single-variable/lectures/Lecture-1-2/slides-1-2.qmd)  [Handout](../modules/01-Single-variable/lectures/Lecture-1-2/handout-1-2.qmd) </t>
   </si>
 </sst>
 </file>
@@ -912,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462B11C3-4A27-724F-BF64-865C592FD77E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1103,6 +1107,9 @@
       <c r="D9" t="s">
         <v>96</v>
       </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabe/Documents/Courses/DataAnalyticsAndViz/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE124BF9-A406-9941-9DC1-E69F3A63D7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C1AA3-8BED-414F-B256-E4A3F5FF182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20900" xr2:uid="{C15E0EEE-C1F1-F44F-B624-E8E3A48FF19B}"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462B11C3-4A27-724F-BF64-865C592FD77E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1">
-        <v>45559</v>
+        <v>45561</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1193,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF64918-9B68-F244-82D3-FD35EDAFCE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="7380" yWindow="1540" windowWidth="29400" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
   <si>
     <t>Week</t>
   </si>
@@ -72,7 +81,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Menlo Regular"/>
@@ -129,7 +138,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Menlo Regular"/>
@@ -198,7 +207,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Menlo Regular"/>
@@ -330,15 +339,9 @@
     <t>Week 6</t>
   </si>
   <si>
-    <t>Data cleaning and missing values</t>
-  </si>
-  <si>
     <t>Lecture 9</t>
   </si>
   <si>
-    <t>Conditional models and regression</t>
-  </si>
-  <si>
     <t>Lecture 10</t>
   </si>
   <si>
@@ -354,9 +357,6 @@
     <t>Week 8</t>
   </si>
   <si>
-    <t>Uncertainty and estimation</t>
-  </si>
-  <si>
     <t>Lecture 12</t>
   </si>
   <si>
@@ -475,30 +475,71 @@
   </si>
   <si>
     <t>Final project feedback due</t>
+  </si>
+  <si>
+    <t>2-D Visualizations</t>
+  </si>
+  <si>
+    <t>Modeling with multiple variables</t>
+  </si>
+  <si>
+    <t>Conditional models</t>
+  </si>
+  <si>
+    <t>[Notebook](../modules/02-Multiple-variables/lectures/Lecture-2-2/notebook-2-2.qmd)</t>
+  </si>
+  <si>
+    <t>[notebook](../modules/02-Multiple-variables/lectures/Lecture-2-1/notebook-2-1.ipynb)</t>
+  </si>
+  <si>
+    <t>[Slides](../modules/02-Multiple-variables/lectures/Lecture-2-0/slides-2-0.qmd)</t>
+  </si>
+  <si>
+    <t>[Notebook](../modules/02-Multiple-variables/lectures/Lecture-2-3/notebook-2-3.qmd) [Slides](../modules/02-Multiple-variables/lectures/Lecture-2-3/slides-2-3.pdf)</t>
+  </si>
+  <si>
+    <t>Conditional models (cont.) + Intro to Javascript</t>
+  </si>
+  <si>
+    <t>Inference</t>
+  </si>
+  <si>
+    <t>[Notebook](https://drive.google.com/file/d/1o9U6DYQAs9DRt1ZX9YmHCZzXEtGrlbIm/view?usp=sharing)  Gradescope TBA</t>
+  </si>
+  <si>
+    <t>Multi-variable data</t>
+  </si>
+  <si>
+    <t>[Notebook](https://drive.google.com/file/d/1EblgjomptOWZYVQYQNe8KXLkhxFpnDtt/view?usp=sharing) Gradescope TBA</t>
+  </si>
+  <si>
+    <t>Multi-variable visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Assignment](../modules/02-Multiple-variables/assignments/hw2-multi-variable.qmd) </t>
+  </si>
+  <si>
+    <t>Quiz 2 Due</t>
+  </si>
+  <si>
+    <t>Quiz 3 Due</t>
+  </si>
+  <si>
+    <t>Homework 2 Due</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Slides](../modules/02-Multiple-variables/lectures/Lecture-2-4/slides-2-4-v2.qmd) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -511,7 +552,7 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Menlo Regular"/>
@@ -520,6 +561,11 @@
       <sz val="12"/>
       <color indexed="13"/>
       <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -530,7 +576,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -553,34 +599,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,27 +635,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff777777"/>
-      <rgbColor rgb="ff448c27"/>
-      <rgbColor rgb="ff4b69c6"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF777777"/>
+      <rgbColor rgb="FF448C27"/>
+      <rgbColor rgb="FF4B69C6"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -811,7 +915,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -829,7 +933,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +962,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,7 +987,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -908,7 +1012,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +1037,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1062,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,7 +1087,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1112,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1137,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1162,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,9 +1175,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1090,7 +1200,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1108,7 +1218,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1243,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1283,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1418,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1443,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,9 +1456,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1362,7 +1478,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1380,7 +1496,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1525,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1434,7 +1550,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1575,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,7 +1600,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1509,7 +1625,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1534,7 +1650,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1559,7 +1675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1584,7 +1700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +1725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1622,741 +1738,824 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="48" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.8516" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="48" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="48" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:7" ht="48" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>45530</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="2">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="48" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:7" ht="48" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>45532</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="48" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:7" ht="48" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>45537</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="48" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:7" ht="48" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>45539</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="2">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="48" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:7" ht="48" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3">
         <v>45544</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="2">
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" t="s" s="2">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="48" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:7" ht="48" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>45546</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="2">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" t="s" s="2">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="48" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:7" ht="48" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="3">
         <v>45551</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="2">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" t="s" s="2">
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" ht="48" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:7" ht="48" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3">
         <v>45553</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="48" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:7" ht="48" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3">
         <v>45554</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" t="s" s="4">
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="48" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:7" ht="48" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="3">
         <v>45558</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" t="s" s="2">
+      <c r="F11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="48" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:7" ht="48" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>45561</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" t="s" s="4">
+      <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="48" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:7" ht="48" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="3">
         <v>45560</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" t="s" s="2">
+      <c r="F13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="48" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:7" ht="48" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="3">
         <v>45562</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" t="s" s="4">
+      <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" ht="48" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:7" ht="48" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>45565</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" ht="48" customHeight="1">
-      <c r="A16" t="s" s="2">
+    </row>
+    <row r="16" spans="1:7" ht="48" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="3">
         <v>45567</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="48" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" ht="48" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="B17" s="3">
         <v>45572</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>55</v>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" ht="48" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>59</v>
+      <c r="F17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="3">
         <v>45574</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" ht="48" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>62</v>
+      <c r="G18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B19" s="3">
         <v>45579</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>63</v>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" ht="48" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>62</v>
+      <c r="F19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="48" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B20" s="3">
         <v>45581</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>65</v>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" ht="48" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>67</v>
+      <c r="G20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B21" s="3">
+        <v>45587</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="48" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3">
         <v>45586</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" ht="48" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45588</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>70</v>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" ht="48" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>72</v>
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="48" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B23" s="3">
-        <v>45593</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>45588</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" ht="48" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>72</v>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="48" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B24" s="3">
-        <v>45595</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>45590</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" ht="48" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>77</v>
+      <c r="F24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B25" s="3">
-        <v>45600</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>45590</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" ht="48" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>77</v>
+      <c r="F25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B26" s="3">
-        <v>45602</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>45593</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" ht="48" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <v>82</v>
+      <c r="G26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B27" s="3">
-        <v>45607</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>83</v>
+        <v>45595</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" ht="48" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>82</v>
+      <c r="G27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="3">
-        <v>45609</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>85</v>
+        <v>45600</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" ht="48" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>87</v>
+      <c r="G28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="48" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="3">
-        <v>45614</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>88</v>
+        <v>45602</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" ht="48" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>87</v>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="48" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B30" s="3">
-        <v>45616</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>88</v>
+        <v>45607</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" ht="48" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>91</v>
+      <c r="G30" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="48" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B31" s="3">
-        <v>45621</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>92</v>
+        <v>45609</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" ht="48" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <v>91</v>
+      <c r="G31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B32" s="3">
-        <v>45623</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>45614</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" ht="48" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>95</v>
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="48" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B33" s="3">
-        <v>45628</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>96</v>
+        <v>45616</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" t="s" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" ht="48" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>95</v>
+      <c r="G33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="48" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B34" s="3">
-        <v>45630</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>98</v>
+        <v>45621</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" ht="48" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>100</v>
+      <c r="G34" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="48" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B35" s="3">
-        <v>45635</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>101</v>
+        <v>45623</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" ht="48" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B36" s="6">
-        <v>45639</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5"/>
+      <c r="G35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="48" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45628</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" t="s" s="2">
-        <v>103</v>
+      <c r="G36" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="48" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45630</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="48" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45635</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45639</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF64918-9B68-F244-82D3-FD35EDAFCE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21584ABC-3950-4343-908B-F53BEB119E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7380" yWindow="1540" windowWidth="29400" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -529,6 +529,15 @@
   </si>
   <si>
     <t xml:space="preserve">[Slides](../modules/02-Multiple-variables/lectures/Lecture-2-4/slides-2-4-v2.qmd) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine bias reading </t>
+  </si>
+  <si>
+    <t>[Article](https://www.propublica.org/article/machine-bias-risk-assessments-in-criminal-sentencing) [Methods](https://www.propublica.org/article/how-we-analyzed-the-compas-recidivism-algorithm)</t>
+  </si>
+  <si>
+    <t>Read before lecture</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2197,39 +2206,41 @@
         <v>60</v>
       </c>
       <c r="B21" s="3">
-        <v>45587</v>
+        <v>45586</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
@@ -2237,18 +2248,18 @@
         <v>64</v>
       </c>
       <c r="B23" s="3">
-        <v>45588</v>
+        <v>45586</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="48" customHeight="1">
@@ -2256,20 +2267,18 @@
         <v>64</v>
       </c>
       <c r="B24" s="3">
-        <v>45590</v>
+        <v>45588</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1">
@@ -2280,36 +2289,38 @@
         <v>45590</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3">
-        <v>45593</v>
+        <v>45590</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">
@@ -2317,37 +2328,37 @@
         <v>69</v>
       </c>
       <c r="B27" s="3">
-        <v>45595</v>
+        <v>45593</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3">
-        <v>45600</v>
+        <v>45595</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48" customHeight="1">
@@ -2355,37 +2366,37 @@
         <v>74</v>
       </c>
       <c r="B29" s="3">
-        <v>45602</v>
+        <v>45600</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B30" s="3">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1">
@@ -2393,37 +2404,37 @@
         <v>79</v>
       </c>
       <c r="B31" s="3">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3">
-        <v>45614</v>
+        <v>45609</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
@@ -2431,7 +2442,7 @@
         <v>84</v>
       </c>
       <c r="B33" s="3">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
@@ -2442,26 +2453,26 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3">
-        <v>45621</v>
+        <v>45616</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" customHeight="1">
@@ -2469,35 +2480,35 @@
         <v>88</v>
       </c>
       <c r="B35" s="3">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3">
-        <v>45628</v>
+        <v>45623</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" customHeight="1">
@@ -2505,43 +2516,45 @@
         <v>92</v>
       </c>
       <c r="B37" s="3">
-        <v>45630</v>
+        <v>45628</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B38" s="3">
-        <v>45635</v>
+        <v>45630</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="6">
-        <v>45639</v>
+      <c r="B39" s="3">
+        <v>45635</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>98</v>
@@ -2550,6 +2563,23 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="48" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45639</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="2" t="s">
         <v>100</v>
       </c>
     </row>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21584ABC-3950-4343-908B-F53BEB119E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEEB93A-4E61-EE4B-972D-805BCB8F2BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1540" windowWidth="29400" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="760" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,9 +504,6 @@
     <t>Inference</t>
   </si>
   <si>
-    <t>[Notebook](https://drive.google.com/file/d/1o9U6DYQAs9DRt1ZX9YmHCZzXEtGrlbIm/view?usp=sharing)  Gradescope TBA</t>
-  </si>
-  <si>
     <t>Multi-variable data</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>Read before lecture</t>
+  </si>
+  <si>
+    <t>[Notebook](https://drive.google.com/file/d/1PcoV5ksM3Ezu6amxVHnS5Al4-GGCuvWI/view?usp=sharing)  Gradescope TBA</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
@@ -2212,14 +2212,14 @@
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
@@ -2237,10 +2237,10 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
@@ -2292,14 +2292,14 @@
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
@@ -2313,14 +2313,14 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEEB93A-4E61-EE4B-972D-805BCB8F2BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8CB0B9-8D4B-E644-941B-E029EF51B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="760" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1620" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,9 +507,6 @@
     <t>Multi-variable data</t>
   </si>
   <si>
-    <t>[Notebook](https://drive.google.com/file/d/1EblgjomptOWZYVQYQNe8KXLkhxFpnDtt/view?usp=sharing) Gradescope TBA</t>
-  </si>
-  <si>
     <t>Multi-variable visualization</t>
   </si>
   <si>
@@ -537,7 +534,10 @@
     <t>Read before lecture</t>
   </si>
   <si>
-    <t>[Notebook](https://drive.google.com/file/d/1PcoV5ksM3Ezu6amxVHnS5Al4-GGCuvWI/view?usp=sharing)  Gradescope TBA</t>
+    <t>[Notebook](https://drive.google.com/file/d/1EblgjomptOWZYVQYQNe8KXLkhxFpnDtt/view?usp=sharing) [Data](../modules/02-Multiple-variables/assignments/data/data.zip) Gradescope TBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Notebook](https://drive.google.com/file/d/1PcoV5ksM3Ezu6amxVHnS5Al4-GGCuvWI/view?usp=sharing)  [Gradescope](https://www.gradescope.com/courses/842824/assignments/5189929) </t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
@@ -2212,14 +2212,14 @@
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
@@ -2240,7 +2240,7 @@
         <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
@@ -2296,10 +2296,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
@@ -2313,14 +2313,14 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8CB0B9-8D4B-E644-941B-E029EF51B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC9E43-CF84-014B-95B3-BB2C02DE3917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1620" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="4540" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,9 +510,6 @@
     <t>Multi-variable visualization</t>
   </si>
   <si>
-    <t xml:space="preserve">[Assignment](../modules/02-Multiple-variables/assignments/hw2-multi-variable.qmd) </t>
-  </si>
-  <si>
     <t>Quiz 2 Due</t>
   </si>
   <si>
@@ -534,10 +531,13 @@
     <t>Read before lecture</t>
   </si>
   <si>
-    <t>[Notebook](https://drive.google.com/file/d/1EblgjomptOWZYVQYQNe8KXLkhxFpnDtt/view?usp=sharing) [Data](../modules/02-Multiple-variables/assignments/data/data.zip) Gradescope TBA</t>
-  </si>
-  <si>
     <t xml:space="preserve">[Notebook](https://drive.google.com/file/d/1PcoV5ksM3Ezu6amxVHnS5Al4-GGCuvWI/view?usp=sharing)  [Gradescope](https://www.gradescope.com/courses/842824/assignments/5189929) </t>
+  </si>
+  <si>
+    <t>[Assignment](../modules/02-Multiple-variables/assignments/hw2-multi-variable.qmd)  Canvas TBD</t>
+  </si>
+  <si>
+    <t>[Notebook](https://drive.google.com/file/d/1EblgjomptOWZYVQYQNe8KXLkhxFpnDtt/view?usp=sharing) [Data](../modules/02-Multiple-variables/assignments/data/data.zip) [Gradescope](https://www.gradescope.com/courses/842824/assignments/5189994)</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
@@ -2212,14 +2212,14 @@
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
@@ -2237,10 +2237,10 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
@@ -2296,10 +2296,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
@@ -2317,10 +2317,10 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC9E43-CF84-014B-95B3-BB2C02DE3917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B60361-697B-884D-8C6C-B204A751BDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="4540" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1769,7 +1769,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3">
-        <v>45590</v>
+        <v>45594</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>51</v>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B60361-697B-884D-8C6C-B204A751BDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF419D2-7B63-E94A-80F5-85E96194345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="4540" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="1880" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>Week</t>
   </si>
@@ -360,18 +360,12 @@
     <t>Lecture 12</t>
   </si>
   <si>
-    <t>Bootstrapping and simulation</t>
-  </si>
-  <si>
     <t>Lecture 13</t>
   </si>
   <si>
     <t>Week 9</t>
   </si>
   <si>
-    <t>High dimensional data, dimensionality reduction</t>
-  </si>
-  <si>
     <t>Lecture 14</t>
   </si>
   <si>
@@ -538,6 +532,15 @@
   </si>
   <si>
     <t>[Notebook](https://drive.google.com/file/d/1EblgjomptOWZYVQYQNe8KXLkhxFpnDtt/view?usp=sharing) [Data](../modules/02-Multiple-variables/assignments/data/data.zip) [Gradescope](https://www.gradescope.com/courses/842824/assignments/5189994)</t>
+  </si>
+  <si>
+    <t>[Quarto setup](https://www.youtube.com/watch?v=2-SshySqQMc)</t>
+  </si>
+  <si>
+    <t>Visualization for the web + intro to javascript</t>
+  </si>
+  <si>
+    <t>[Learn just enough javascript](https://observablehq.com/@observablehq/learn-javascript-introduction?collection=@observablehq/tutorial) [Plot from ggplot](https://observablehq.com/@observablehq/plot-from-ggplot2?collection=@observablehq/tutorial)</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2054,7 +2057,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>50</v>
@@ -2092,11 +2095,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>55</v>
@@ -2113,11 +2116,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>56</v>
@@ -2134,11 +2137,11 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>58</v>
@@ -2172,11 +2175,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
@@ -2193,12 +2196,14 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="48" customHeight="1">
@@ -2212,14 +2217,14 @@
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
@@ -2233,19 +2238,19 @@
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>45586</v>
@@ -2254,17 +2259,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="48" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3">
         <v>45588</v>
@@ -2273,17 +2282,17 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3">
         <v>45590</v>
@@ -2292,19 +2301,19 @@
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
         <v>45594</v>
@@ -2313,19 +2322,21 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3">
         <v>45593</v>
@@ -2334,17 +2345,17 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3">
         <v>45595</v>
@@ -2353,17 +2364,17 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="3">
         <v>45600</v>
@@ -2372,17 +2383,17 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3">
         <v>45602</v>
@@ -2391,17 +2402,17 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3">
         <v>45607</v>
@@ -2410,17 +2421,17 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3">
         <v>45609</v>
@@ -2429,17 +2440,17 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3">
         <v>45614</v>
@@ -2448,17 +2459,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3">
         <v>45616</v>
@@ -2467,17 +2478,17 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3">
         <v>45621</v>
@@ -2486,17 +2497,17 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" s="3">
         <v>45623</v>
@@ -2508,12 +2519,12 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3">
         <v>45628</v>
@@ -2522,17 +2533,17 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3">
         <v>45630</v>
@@ -2541,46 +2552,46 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="3">
         <v>45635</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="48" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="6">
         <v>45639</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF419D2-7B63-E94A-80F5-85E96194345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F6847-8ECF-F646-AA1D-B4AA3A567FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1880" windowWidth="29400" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="760" windowWidth="38100" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2229,10 +2229,10 @@
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
-        <v>45590</v>
+        <v>45594</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>38</v>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F6847-8ECF-F646-AA1D-B4AA3A567FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2584D66-10E3-3744-9E3D-FC334EA2BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="760" windowWidth="38100" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="3740" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
   <si>
     <t>Week</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>[Learn just enough javascript](https://observablehq.com/@observablehq/learn-javascript-introduction?collection=@observablehq/tutorial) [Plot from ggplot](https://observablehq.com/@observablehq/plot-from-ggplot2?collection=@observablehq/tutorial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Slides](../modules/03-Timeseries/lectures/Lecture-3-1/slides-3-1.qmd) </t>
   </si>
 </sst>
 </file>
@@ -1771,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2348,7 +2351,9 @@
         <v>68</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>69</v>
       </c>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2584D66-10E3-3744-9E3D-FC334EA2BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5479D9-C1BF-3A41-A031-8C95E8697715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="3740" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
   <si>
     <t>Week</t>
   </si>
@@ -528,9 +528,6 @@
     <t xml:space="preserve">[Notebook](https://drive.google.com/file/d/1PcoV5ksM3Ezu6amxVHnS5Al4-GGCuvWI/view?usp=sharing)  [Gradescope](https://www.gradescope.com/courses/842824/assignments/5189929) </t>
   </si>
   <si>
-    <t>[Assignment](../modules/02-Multiple-variables/assignments/hw2-multi-variable.qmd)  Canvas TBD</t>
-  </si>
-  <si>
     <t>[Notebook](https://drive.google.com/file/d/1EblgjomptOWZYVQYQNe8KXLkhxFpnDtt/view?usp=sharing) [Data](../modules/02-Multiple-variables/assignments/data/data.zip) [Gradescope](https://www.gradescope.com/courses/842824/assignments/5189994)</t>
   </si>
   <si>
@@ -544,6 +541,12 @@
   </si>
   <si>
     <t xml:space="preserve">[Slides](../modules/03-Timeseries/lectures/Lecture-3-1/slides-3-1.qmd) </t>
+  </si>
+  <si>
+    <t>[Assignment](../modules/02-Multiple-variables/assignments/hw2-multi-variable.qmd)  [Canvas](https://harveymuddcollege.instructure.com/courses/1728/assignments/10319)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Slides](../modules/03-Timeseries/lectures/Lecture-3-2/slides-3-2.qmd) </t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2262,10 +2265,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>113</v>
@@ -2308,7 +2311,7 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>111</v>
@@ -2328,10 +2331,10 @@
         <v>109</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>112</v>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>69</v>
@@ -2372,7 +2375,9 @@
         <v>70</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
       </c>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5479D9-C1BF-3A41-A031-8C95E8697715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A958A5-2B21-E14D-A77F-1DC44DD3D491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3740" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1120" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
   <si>
     <t>Week</t>
   </si>
@@ -393,15 +393,9 @@
     <t>Week 11</t>
   </si>
   <si>
-    <t>Spatial analysis and visualization</t>
-  </si>
-  <si>
     <t>Lecture 18</t>
   </si>
   <si>
-    <t>Geographic data, projections and maps</t>
-  </si>
-  <si>
     <t>Lecture 19</t>
   </si>
   <si>
@@ -547,6 +541,18 @@
   </si>
   <si>
     <t xml:space="preserve">[Slides](../modules/03-Timeseries/lectures/Lecture-3-2/slides-3-2.qmd) </t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>[slides](../modules/04-Interaction-and-web/lectures/Lecture-4-0/interaction.pdf)</t>
+  </si>
+  <si>
+    <t>Interaction exercises</t>
+  </si>
+  <si>
+    <t>[slides](../modules/04-Interaction-and-web/lectures/Lecture-4-1/interaction-2.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1784,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2063,7 +2069,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>50</v>
@@ -2101,11 +2107,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>55</v>
@@ -2122,11 +2128,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>56</v>
@@ -2143,11 +2149,11 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>58</v>
@@ -2181,11 +2187,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
@@ -2202,11 +2208,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>62</v>
@@ -2223,14 +2229,14 @@
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
@@ -2244,14 +2250,14 @@
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
@@ -2265,13 +2271,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>64</v>
@@ -2307,14 +2313,14 @@
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
@@ -2328,16 +2334,16 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">
@@ -2355,7 +2361,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>69</v>
@@ -2376,7 +2382,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -2393,12 +2399,14 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48" customHeight="1">
@@ -2412,17 +2420,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3">
         <v>45607</v>
@@ -2431,17 +2441,17 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3">
         <v>45609</v>
@@ -2450,17 +2460,17 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
         <v>45614</v>
@@ -2469,17 +2479,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="3">
         <v>45616</v>
@@ -2488,17 +2498,17 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" s="3">
         <v>45621</v>
@@ -2507,17 +2517,17 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="3">
         <v>45623</v>
@@ -2529,12 +2539,12 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3">
         <v>45628</v>
@@ -2543,17 +2553,17 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="3">
         <v>45630</v>
@@ -2562,46 +2572,46 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3">
         <v>45635</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="48" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B40" s="6">
         <v>45639</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A958A5-2B21-E14D-A77F-1DC44DD3D491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552A97E-AFE3-8745-BD70-CAAA5819D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1120" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="760" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
   <si>
     <t>Week</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Week 12</t>
   </si>
   <si>
-    <t>Climate data</t>
-  </si>
-  <si>
     <t>Lecture 20</t>
   </si>
   <si>
@@ -553,6 +550,9 @@
   </si>
   <si>
     <t>[slides](../modules/04-Interaction-and-web/lectures/Lecture-4-1/interaction-2.pdf)</t>
+  </si>
+  <si>
+    <t>[Worksheet](https://observablehq.com/d/f88ffd133fa8dfbb) [Slides](../modules/04-Interaction-and-web/lectures/Lecture-4-2/slides-4-2.pdf)</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1784,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>50</v>
@@ -2107,11 +2107,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>55</v>
@@ -2128,11 +2128,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>56</v>
@@ -2149,11 +2149,11 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>58</v>
@@ -2187,11 +2187,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
@@ -2208,11 +2208,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>62</v>
@@ -2229,14 +2229,14 @@
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
@@ -2250,14 +2250,14 @@
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
@@ -2271,13 +2271,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>64</v>
@@ -2313,14 +2313,14 @@
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
@@ -2334,16 +2334,16 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>69</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -2399,11 +2399,11 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>73</v>
@@ -2420,11 +2420,11 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>74</v>
@@ -2441,12 +2441,14 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48" customHeight="1">
@@ -2460,17 +2462,17 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3">
         <v>45614</v>
@@ -2479,17 +2481,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3">
         <v>45616</v>
@@ -2498,17 +2500,17 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3">
         <v>45621</v>
@@ -2517,17 +2519,17 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
         <v>45623</v>
@@ -2539,12 +2541,12 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3">
         <v>45628</v>
@@ -2553,17 +2555,17 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3">
         <v>45630</v>
@@ -2572,46 +2574,46 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3">
         <v>45635</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="48" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="6">
         <v>45639</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552A97E-AFE3-8745-BD70-CAAA5819D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711347FD-2371-3D45-8CB1-242CFCCEF7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="760" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1340" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
   <si>
     <t>Week</t>
   </si>
@@ -405,9 +405,6 @@
     <t>Lecture 20</t>
   </si>
   <si>
-    <t>Moving to the web</t>
-  </si>
-  <si>
     <t>Lecture 21</t>
   </si>
   <si>
@@ -553,6 +550,12 @@
   </si>
   <si>
     <t>[Worksheet](https://observablehq.com/d/f88ffd133fa8dfbb) [Slides](../modules/04-Interaction-and-web/lectures/Lecture-4-2/slides-4-2.pdf)</t>
+  </si>
+  <si>
+    <t>[Worksheet](https://observablehq.com/d/f88ffd133fa8dfbb) [Slides](../modules/04-Interaction-and-web/lectures/Lecture-4-3/slides-4-3.pdf)</t>
+  </si>
+  <si>
+    <t>Interaction and D3.js</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1787,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2069,7 +2072,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>50</v>
@@ -2107,11 +2110,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>55</v>
@@ -2128,11 +2131,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>56</v>
@@ -2149,11 +2152,11 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>58</v>
@@ -2187,11 +2190,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>61</v>
@@ -2208,11 +2211,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>62</v>
@@ -2229,14 +2232,14 @@
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48" customHeight="1">
@@ -2250,14 +2253,14 @@
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" customHeight="1">
@@ -2271,13 +2274,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>64</v>
@@ -2313,14 +2316,14 @@
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" customHeight="1">
@@ -2334,16 +2337,16 @@
         <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" customHeight="1">
@@ -2361,7 +2364,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>69</v>
@@ -2382,7 +2385,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -2399,11 +2402,11 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>73</v>
@@ -2420,11 +2423,11 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>74</v>
@@ -2441,11 +2444,11 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>76</v>
@@ -2462,17 +2465,19 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3">
         <v>45614</v>
@@ -2481,17 +2486,17 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
         <v>45616</v>
@@ -2500,17 +2505,17 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
         <v>45621</v>
@@ -2519,17 +2524,17 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="3">
         <v>45623</v>
@@ -2541,12 +2546,12 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3">
         <v>45628</v>
@@ -2555,17 +2560,17 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3">
         <v>45630</v>
@@ -2574,46 +2579,46 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="3">
         <v>45635</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="48" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="6">
         <v>45639</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711347FD-2371-3D45-8CB1-242CFCCEF7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0549683-1432-784F-87C2-880A936B805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1340" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="920" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
   <si>
     <t>Week</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>Interaction and D3.js</t>
+  </si>
+  <si>
+    <t>Project Proposal</t>
+  </si>
+  <si>
+    <t>[Assignment](../project/project.qmd) [Submission](https://harveymuddcollege.instructure.com/courses/1728/assignments/10583)</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2480,26 +2486,26 @@
         <v>78</v>
       </c>
       <c r="B33" s="3">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="F33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
@@ -2510,26 +2516,26 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3">
-        <v>45621</v>
+        <v>45616</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" customHeight="1">
@@ -2537,35 +2543,35 @@
         <v>82</v>
       </c>
       <c r="B36" s="3">
-        <v>45623</v>
+        <v>45621</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B37" s="3">
-        <v>45628</v>
+        <v>45623</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
@@ -2573,43 +2579,45 @@
         <v>86</v>
       </c>
       <c r="B38" s="3">
-        <v>45630</v>
+        <v>45628</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3">
-        <v>45635</v>
+        <v>45630</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="48" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="6">
-        <v>45639</v>
+      <c r="B40" s="3">
+        <v>45635</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>92</v>
@@ -2618,6 +2626,23 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="6">
+        <v>45639</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="2" t="s">
         <v>94</v>
       </c>
     </row>

--- a/calendar/Calendar.xlsx
+++ b/calendar/Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabehope/Documents/DataViz/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0549683-1432-784F-87C2-880A936B805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681B1D7-9FAC-D649-B55F-B061B297B851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="920" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
   <si>
     <t>Week</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>[Assignment](../project/project.qmd) [Submission](https://harveymuddcollege.instructure.com/courses/1728/assignments/10583)</t>
+  </si>
+  <si>
+    <t>[Slides (pptx)](../modules/04-Interaction-and-web/lectures/Lecture-4-4/slides-4-4.pptx) [Slides](../modules/04-Interaction-and-web/lectures/Lecture-4-4/slides-4-4.pdf)</t>
+  </si>
+  <si>
+    <t>Perception and animation</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="48" customHeight="1"/>
@@ -2511,10 +2517,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>80</v>
       </c>
